--- a/文档资料/物品.xlsx
+++ b/文档资料/物品.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="30720" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="装备" sheetId="1" r:id="rId1"/>
+    <sheet name="武器" sheetId="2" r:id="rId2"/>
+    <sheet name="消耗品" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+  <si>
+    <t>装备列表</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
   <si>
     <t>台灯</t>
   </si>
@@ -158,6 +173,9 @@
   </si>
   <si>
     <t>眼药水</t>
+  </si>
+  <si>
+    <t>武器列表</t>
   </si>
 </sst>
 </file>
@@ -170,9 +188,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -643,138 +669,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,447 +1126,472 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
         <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1538,14 +1601,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/文档资料/物品.xlsx
+++ b/文档资料/物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
   <si>
     <t>装备列表</t>
   </si>
@@ -52,130 +52,376 @@
     <t>白</t>
   </si>
   <si>
+    <t>攻速+5%</t>
+  </si>
+  <si>
     <t>鼠标</t>
   </si>
   <si>
+    <t>攻速+10%，生命值-2</t>
+  </si>
+  <si>
     <t>键盘</t>
   </si>
   <si>
     <t>绿</t>
   </si>
   <si>
+    <t>防御-1，近战攻击+1，暴击率+10%</t>
+  </si>
+  <si>
     <t>动漫手办</t>
   </si>
   <si>
     <t>蓝</t>
   </si>
   <si>
+    <t>伤害-5%，幸运+5，速度+5%，闪避+5%，暴击率+5%</t>
+  </si>
+  <si>
     <t>口罩</t>
   </si>
   <si>
+    <t>防御+1</t>
+  </si>
+  <si>
     <t>剃须刀</t>
   </si>
   <si>
+    <t>伤害+10%，暴击率+5%，闪避-5%</t>
+  </si>
+  <si>
     <t>保温杯</t>
   </si>
   <si>
+    <t>生命+5，防御+1</t>
+  </si>
+  <si>
     <t>护手霜</t>
   </si>
   <si>
+    <t>近战攻击+1，防御+1，远程攻击-1</t>
+  </si>
+  <si>
     <t>花露水</t>
   </si>
   <si>
+    <t>速度+5%</t>
+  </si>
+  <si>
     <t>风油精</t>
   </si>
   <si>
+    <t>近战攻击+2，生命值-2</t>
+  </si>
+  <si>
     <t>毛绒玩偶</t>
   </si>
   <si>
+    <t>生命值+8，幸运+15%</t>
+  </si>
+  <si>
     <t>纸巾</t>
   </si>
   <si>
+    <t>生命值+2</t>
+  </si>
+  <si>
     <t>耳机</t>
   </si>
   <si>
+    <t>远程攻击+2，速度-5%</t>
+  </si>
+  <si>
     <t>维生素</t>
   </si>
   <si>
     <t>紫</t>
   </si>
   <si>
+    <t>近战攻击+3，远程攻击+2，暴击率+10%，暴击倍率+10%</t>
+  </si>
+  <si>
     <t>书本</t>
   </si>
   <si>
+    <t>幸运+5%</t>
+  </si>
+  <si>
     <t>手套</t>
   </si>
   <si>
+    <t>闪避+5%</t>
+  </si>
+  <si>
     <t>洁厕灵</t>
   </si>
   <si>
+    <t>暴击率+10%，幸运-5%</t>
+  </si>
+  <si>
     <t>肥皂</t>
   </si>
   <si>
+    <t>伤害+10%，防御-1</t>
+  </si>
+  <si>
     <t>小风扇</t>
   </si>
   <si>
+    <t>远程伤害+1</t>
+  </si>
+  <si>
     <t>指甲剪</t>
   </si>
   <si>
+    <t>近战伤害+1</t>
+  </si>
+  <si>
     <t>隐形眼镜</t>
   </si>
   <si>
+    <t>距离+15，暴击率+10%</t>
+  </si>
+  <si>
     <t>眼镜</t>
   </si>
   <si>
+    <t>距离+20</t>
+  </si>
+  <si>
     <t>垃圾桶</t>
   </si>
   <si>
+    <t>收获+15，防御力+1</t>
+  </si>
+  <si>
     <t>毛巾</t>
   </si>
   <si>
+    <t>自愈+2</t>
+  </si>
+  <si>
     <t>生锈的衣架</t>
   </si>
   <si>
+    <t>吸血+10%，伤害+30%，范围+20，幸运-10%</t>
+  </si>
+  <si>
     <t>普通衣架</t>
   </si>
   <si>
+    <t>范围+10，防御+1</t>
+  </si>
+  <si>
     <t>头巾</t>
   </si>
   <si>
     <t>热水壶</t>
   </si>
   <si>
+    <t>防御+3，生命值+3，速度-10%</t>
+  </si>
+  <si>
     <t>杀虫剂</t>
   </si>
   <si>
+    <t>近战攻击+2，远程攻击-1</t>
+  </si>
+  <si>
     <t>塑料袋</t>
   </si>
   <si>
+    <t>收获+5</t>
+  </si>
+  <si>
     <t>电吹风</t>
   </si>
   <si>
+    <t>远程伤害+2，攻速+5%</t>
+  </si>
+  <si>
     <t>卷发棒</t>
   </si>
   <si>
+    <t>近战伤害+2，速度+5%</t>
+  </si>
+  <si>
     <t>发胶</t>
   </si>
   <si>
+    <t>近战伤害+1，远程伤害+1</t>
+  </si>
+  <si>
     <t>鸭舌帽</t>
   </si>
   <si>
+    <t>防御+2，范围-10</t>
+  </si>
+  <si>
     <t>国际象棋</t>
   </si>
   <si>
+    <t>幸运+5%，暴击倍率+5%</t>
+  </si>
+  <si>
     <t>扑克牌</t>
   </si>
   <si>
+    <t>暴击率+5%</t>
+  </si>
+  <si>
     <t>三国杀</t>
   </si>
   <si>
+    <t>暴击率+25%，暴击倍率+25%，收获-5，幸运-10%</t>
+  </si>
+  <si>
     <t>Uno</t>
   </si>
   <si>
+    <t>幸运+10%，生命值+2</t>
+  </si>
+  <si>
     <t>眼药水</t>
   </si>
   <si>
+    <t>远程伤害+1，暴击倍率+10%</t>
+  </si>
+  <si>
     <t>武器列表</t>
+  </si>
+  <si>
+    <t>武器类型</t>
+  </si>
+  <si>
+    <t>效果衍生次数</t>
+  </si>
+  <si>
+    <t>基础攻击</t>
+  </si>
+  <si>
+    <t>对应伤害倍率</t>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>弧度</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>击退</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>弹夹</t>
+  </si>
+  <si>
+    <t>换弹速度/s</t>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>砍刀</t>
+  </si>
+  <si>
+    <t>小刀</t>
+  </si>
+  <si>
+    <t>长枪</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
+    <t>弹弓</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>消耗品列表</t>
+  </si>
+  <si>
+    <t>小血瓶</t>
+  </si>
+  <si>
+    <t>回血20%</t>
+  </si>
+  <si>
+    <t>小攻击药水</t>
+  </si>
+  <si>
+    <t>伤害*125%，10s</t>
+  </si>
+  <si>
+    <t>小速度药水</t>
+  </si>
+  <si>
+    <t>速度*125%，8s</t>
+  </si>
+  <si>
+    <t>小防御药水</t>
+  </si>
+  <si>
+    <t>防御*125,10s</t>
+  </si>
+  <si>
+    <t>狂暴药水</t>
+  </si>
+  <si>
+    <t>攻速、换弹速度、暴击率*120%，7s</t>
+  </si>
+  <si>
+    <t>吸血药水</t>
+  </si>
+  <si>
+    <t>吸血+40%，8s</t>
+  </si>
+  <si>
+    <t>燃烧弹</t>
+  </si>
+  <si>
+    <t>造成3/s伤害，持续8s</t>
+  </si>
+  <si>
+    <t>鞭炮</t>
+  </si>
+  <si>
+    <t>直线发射，造成3范围内8伤害和5击退</t>
+  </si>
+  <si>
+    <t>手雷</t>
+  </si>
+  <si>
+    <t>投掷，造成5范围20伤害</t>
+  </si>
+  <si>
+    <t>冰冻炸弹</t>
+  </si>
+  <si>
+    <t>投掷，造成6范围5伤害 50%减速6s</t>
   </si>
 </sst>
 </file>
@@ -188,13 +434,39 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -669,150 +941,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,6 +1164,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12082780" y="68580"/>
+          <a:ext cx="3296920" cy="1578610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>武器可以升级品质，相同品质的武器可以合成更高品质的相同武器。购买相同品质武器可以相当于寄存经验值在武器上，白1绿2蓝4紫色8...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他颜色的武器价格是白色价格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>倍率，功能是提升</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>30%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（算了后面再详细写）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>//测试版本其实可以都先弄白武</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,463 +1529,582 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="68.3818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="15" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
         <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1601,20 +2120,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="8.38181818181818" customWidth="1"/>
+    <col min="6" max="6" width="9.17272727272727" customWidth="1"/>
+    <col min="16" max="16" width="12.1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1623,26 +2151,615 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.85</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>1.2</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
+        <v>1.8</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.7</v>
+      </c>
+      <c r="N5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.2</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>1.3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.65</v>
+      </c>
+      <c r="N9">
+        <v>0.8</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.6</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.4727272727273" customWidth="1"/>
+    <col min="2" max="2" width="11.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="10.2363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.9545454545455" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
